--- a/data/post2002DB.xlsx
+++ b/data/post2002DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/hildad_ntnu_no/Documents/Source codes/Streamlit/databases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hildad/Documents/GitHub/lyingpendatabases/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{267C9D82-70EC-AD4F-B451-5F76CFBA9357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDC04F00-22A8-0F41-89C8-FF1D10A8117A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73BB303-2FF7-9348-A115-4377362C4B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{CB7DAB00-11D3-3A4F-BDDA-5DEC01C2CC59}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{CB7DAB00-11D3-3A4F-BDDA-5DEC01C2CC59}"/>
   </bookViews>
   <sheets>
     <sheet name="Database of Post-2002 Fragments" sheetId="1" r:id="rId1"/>
@@ -6750,10 +6750,10 @@
     </r>
   </si>
   <si>
-    <t>Identifications</t>
-  </si>
-  <si>
     <t>Gen 36:7–16</t>
+  </si>
+  <si>
+    <t>False Identifications</t>
   </si>
 </sst>
 </file>
@@ -7730,7 +7730,7 @@
     <tableColumn id="2" xr3:uid="{142CBA6D-F3C5-874F-9A10-B4D0D370D4AD}" name="Collection No." dataDxfId="14"/>
     <tableColumn id="32" xr3:uid="{9E02593A-E84E-124C-84CB-F3EC28D64481}" name="Name or Description" dataDxfId="13"/>
     <tableColumn id="35" xr3:uid="{C459176B-7CFF-7741-81F6-696F6DDA7AC2}" name="Alleged Provenance" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{11BD8FB7-E8BA-EE49-B0FE-64041D98EB57}" name="Identifications" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{11BD8FB7-E8BA-EE49-B0FE-64041D98EB57}" name="False Identifications" dataDxfId="11"/>
     <tableColumn id="28" xr3:uid="{7CFA9B31-34B3-1249-944A-FE370EC2B25E}" name="Listed by Emanuel Tov in Revised Lists of the Text from the Judaean Desert (2010)" dataDxfId="10"/>
     <tableColumn id="29" xr3:uid="{F6F3730C-3E78-9640-BD99-2AABB1F5151F}" name="Listed in Accordance" dataDxfId="9"/>
     <tableColumn id="4" xr3:uid="{E85C9271-D71B-2347-AC6C-CB969F40EC18}" name="Collector(s)/Collection(s)" dataDxfId="8"/>
@@ -8108,9 +8108,9 @@
   </sheetPr>
   <dimension ref="A1:T102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -8120,11 +8120,11 @@
     <col min="3" max="3" width="15.3984375" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" style="1" customWidth="1"/>
     <col min="5" max="5" width="30" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.59765625" style="1" customWidth="1"/>
     <col min="7" max="7" width="29.59765625" style="1" customWidth="1"/>
     <col min="8" max="8" width="52.3984375" style="1" customWidth="1"/>
     <col min="9" max="9" width="43.796875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="99.59765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="37.19921875" style="1" customWidth="1"/>
     <col min="11" max="11" width="31.796875" style="1" customWidth="1"/>
     <col min="12" max="12" width="30.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="36.19921875" style="1" customWidth="1"/>
@@ -8151,7 +8151,7 @@
     <col min="34" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>8</v>
@@ -8428,7 +8428,7 @@
         <v>58</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>59</v>
